--- a/orginals/Book1.xlsx
+++ b/orginals/Book1.xlsx
@@ -7,10 +7,10 @@
     <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
-    <sheet name="Consolidated Sheet (2)" sheetId="1" r:id="rId1"/>
+    <sheet name="Consolidated Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidated Sheet (2)'!$A$1:$M$899</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Consolidated Sheet'!$A$1:$M$899</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1291,8 +1291,8 @@
   </sheetPr>
   <dimension ref="A1:M1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A417" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A796" workbookViewId="0">
+      <selection activeCell="A105" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1"/>
@@ -1823,7 +1823,7 @@
         <v>ajai@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="11" ht="49.5" customHeight="1" spans="1:13">
+    <row r="11" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A11" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -1877,7 +1877,7 @@
         <v>raghul@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="12" ht="49.5" customHeight="1" spans="1:13">
+    <row r="12" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A12" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -1931,7 +1931,7 @@
         <v>vinothkumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="13" ht="49.5" customHeight="1" spans="1:13">
+    <row r="13" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A13" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -1985,7 +1985,7 @@
         <v>vignesh@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="14" ht="49.5" customHeight="1" spans="1:13">
+    <row r="14" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A14" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2039,7 +2039,7 @@
         <v>vignesh@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="15" ht="49.5" customHeight="1" spans="1:13">
+    <row r="15" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A15" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2093,7 +2093,7 @@
         <v>uvarajavc@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="16" ht="49.5" customHeight="1" spans="1:13">
+    <row r="16" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A16" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2147,7 +2147,7 @@
         <v>vasudevan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="17" ht="49.5" customHeight="1" spans="1:13">
+    <row r="17" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A17" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2201,7 +2201,7 @@
         <v>ananthid@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="18" ht="49.5" customHeight="1" spans="1:13">
+    <row r="18" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A18" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2255,7 +2255,7 @@
         <v>praveenar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="19" ht="49.5" customHeight="1" spans="1:13">
+    <row r="19" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A19" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2309,7 +2309,7 @@
         <v>ajai@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="20" ht="49.5" customHeight="1" spans="1:13">
+    <row r="20" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A20" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2363,7 +2363,7 @@
         <v>praveenkumard@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="21" ht="49.5" customHeight="1" spans="1:13">
+    <row r="21" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A21" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2417,7 +2417,7 @@
         <v>chelladurai@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="22" ht="49.5" customHeight="1" spans="1:13">
+    <row r="22" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A22" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2471,7 +2471,7 @@
         <v>ananthid@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="23" ht="49.5" customHeight="1" spans="1:13">
+    <row r="23" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A23" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2525,7 +2525,7 @@
         <v>vasudevan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="24" ht="49.5" customHeight="1" spans="1:13">
+    <row r="24" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A24" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2579,7 +2579,7 @@
         <v>muthukumaravelk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="25" ht="49.5" customHeight="1" spans="1:13">
+    <row r="25" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A25" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2633,7 +2633,7 @@
         <v>uvarajavc@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="26" ht="49.5" customHeight="1" spans="1:13">
+    <row r="26" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A26" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2687,7 +2687,7 @@
         <v>ananthid@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="27" ht="49.5" customHeight="1" spans="1:13">
+    <row r="27" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A27" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2741,7 +2741,7 @@
         <v>snekhaar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="28" ht="49.5" customHeight="1" spans="1:13">
+    <row r="28" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A28" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2795,7 +2795,7 @@
         <v>praveenkumard@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="29" ht="49.5" customHeight="1" spans="1:13">
+    <row r="29" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A29" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -2849,7 +2849,7 @@
         <v>snekhaar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="30" ht="49.5" customHeight="1" spans="1:13">
+    <row r="30" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A30" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AGRI")</f>
         <v>AGRI</v>
@@ -5277,7 +5277,7 @@
       <c r="L75" s="4"/>
       <c r="M75" s="4"/>
     </row>
-    <row r="76" ht="49.5" customHeight="1" spans="1:13">
+    <row r="76" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A76" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5331,7 +5331,7 @@
         <v>gayathirib@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="77" ht="49.5" customHeight="1" spans="1:13">
+    <row r="77" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A77" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5385,7 +5385,7 @@
         <v>sureshr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="78" ht="49.5" customHeight="1" spans="1:13">
+    <row r="78" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A78" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5439,7 +5439,7 @@
         <v>revathivm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="79" ht="49.5" customHeight="1" spans="1:13">
+    <row r="79" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A79" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5493,7 +5493,7 @@
         <v>akalyadevi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="80" ht="49.5" customHeight="1" spans="1:13">
+    <row r="80" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A80" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5547,7 +5547,7 @@
         <v>rajkumarvs@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="81" ht="49.5" customHeight="1" spans="1:13">
+    <row r="81" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A81" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5601,7 +5601,7 @@
         <v>esakkimadurae@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="82" ht="49.5" customHeight="1" spans="1:13">
+    <row r="82" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A82" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5655,7 +5655,7 @@
         <v>reshmits@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="83" ht="49.5" customHeight="1" spans="1:13">
+    <row r="83" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A83" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5709,7 +5709,7 @@
         <v>nishadevik@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="84" ht="49.5" customHeight="1" spans="1:13">
+    <row r="84" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A84" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5763,7 +5763,7 @@
         <v>ashfornherminajm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="85" ht="49.5" customHeight="1" spans="1:13">
+    <row r="85" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A85" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5817,7 +5817,7 @@
         <v>gunalank@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="86" ht="49.5" customHeight="1" spans="1:13">
+    <row r="86" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A86" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5871,7 +5871,7 @@
         <v>arunkumarr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="87" ht="49.5" customHeight="1" spans="1:13">
+    <row r="87" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A87" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5925,7 +5925,7 @@
         <v>eswaramoorthyv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="88" ht="49.5" customHeight="1" spans="1:13">
+    <row r="88" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A88" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -5979,7 +5979,7 @@
         <v>benitagraciathangam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="89" ht="49.5" customHeight="1" spans="1:13">
+    <row r="89" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A89" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6033,7 +6033,7 @@
         <v>sassontaffwinmosess@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="90" ht="49.5" customHeight="1" spans="1:13">
+    <row r="90" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A90" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6087,7 +6087,7 @@
         <v>kiruthigar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="91" ht="49.5" customHeight="1" spans="1:13">
+    <row r="91" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A91" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6141,7 +6141,7 @@
         <v>navaneethkumark@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="92" ht="49.5" customHeight="1" spans="1:13">
+    <row r="92" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A92" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6195,7 +6195,7 @@
         <v>chozharajanp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="93" ht="49.5" customHeight="1" spans="1:13">
+    <row r="93" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A93" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6249,7 +6249,7 @@
         <v>vaanathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="94" ht="49.5" customHeight="1" spans="1:13">
+    <row r="94" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A94" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6303,7 +6303,7 @@
         <v>kalpana@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="95" ht="49.5" customHeight="1" spans="1:13">
+    <row r="95" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A95" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6357,7 +6357,7 @@
         <v>nithyapriyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="96" ht="49.5" customHeight="1" spans="1:13">
+    <row r="96" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A96" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6411,7 +6411,7 @@
         <v>subbulakshmi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="97" ht="49.5" customHeight="1" spans="1:13">
+    <row r="97" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A97" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6465,7 +6465,7 @@
         <v>satheeshkumars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="98" ht="49.5" customHeight="1" spans="1:13">
+    <row r="98" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A98" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6519,7 +6519,7 @@
         <v>balasamyk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="99" ht="49.5" customHeight="1" spans="1:13">
+    <row r="99" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A99" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6573,7 +6573,7 @@
         <v>gomathir@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="100" ht="49.5" customHeight="1" spans="1:13">
+    <row r="100" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A100" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6627,7 +6627,7 @@
         <v>suriya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="101" ht="49.5" customHeight="1" spans="1:13">
+    <row r="101" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A101" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6681,7 +6681,7 @@
         <v>sundaramurthys@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="102" ht="49.5" customHeight="1" spans="1:13">
+    <row r="102" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A102" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6735,7 +6735,7 @@
         <v>divyabarathip@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="103" ht="49.5" customHeight="1" spans="1:13">
+    <row r="103" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A103" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6789,7 +6789,7 @@
         <v>malathimahalingamm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="104" ht="49.5" customHeight="1" spans="1:13">
+    <row r="104" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A104" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6843,7 +6843,7 @@
         <v>vijayanandps@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="105" ht="49.5" customHeight="1" spans="1:13">
+    <row r="105" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A105" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6897,7 +6897,7 @@
         <v>deephav@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="106" ht="49.5" customHeight="1" spans="1:13">
+    <row r="106" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A106" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -6951,7 +6951,7 @@
         <v>manigandan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="107" ht="49.5" customHeight="1" spans="1:13">
+    <row r="107" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A107" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7005,7 +7005,7 @@
         <v>gayathri@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="108" ht="49.5" customHeight="1" spans="1:13">
+    <row r="108" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A108" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7059,7 +7059,7 @@
         <v>aslinjerusha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="109" ht="49.5" customHeight="1" spans="1:13">
+    <row r="109" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A109" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7113,7 +7113,7 @@
         <v>ezhil@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="110" ht="49.5" customHeight="1" spans="1:13">
+    <row r="110" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A110" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7167,7 +7167,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="111" ht="49.5" customHeight="1" spans="1:13">
+    <row r="111" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A111" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7221,7 +7221,7 @@
         <v>jeevithasv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="112" ht="49.5" customHeight="1" spans="1:13">
+    <row r="112" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A112" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7275,7 +7275,7 @@
         <v>sassontaffwinmosess@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="113" ht="49.5" customHeight="1" spans="1:13">
+    <row r="113" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A113" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7329,7 +7329,7 @@
         <v>premkumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="114" ht="49.5" customHeight="1" spans="1:13">
+    <row r="114" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A114" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7383,7 +7383,7 @@
         <v>divyabarathip@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="115" ht="49.5" customHeight="1" spans="1:13">
+    <row r="115" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A115" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7437,7 +7437,7 @@
         <v>nishadevik@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="116" ht="49.5" customHeight="1" spans="1:13">
+    <row r="116" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A116" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7491,7 +7491,7 @@
         <v>chozharajanp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="117" ht="49.5" customHeight="1" spans="1:13">
+    <row r="117" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A117" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7545,7 +7545,7 @@
         <v>priyadharshni@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="118" ht="49.5" customHeight="1" spans="1:13">
+    <row r="118" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A118" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7599,7 +7599,7 @@
         <v>benitagraciathangam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="119" ht="49.5" customHeight="1" spans="1:13">
+    <row r="119" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A119" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7653,7 +7653,7 @@
         <v>satheeshnp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="120" ht="49.5" customHeight="1" spans="1:13">
+    <row r="120" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A120" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7707,7 +7707,7 @@
         <v>saveethar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="121" ht="49.5" customHeight="1" spans="1:13">
+    <row r="121" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A121" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7761,7 +7761,7 @@
         <v>hemapriyad@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="122" ht="49.5" customHeight="1" spans="1:13">
+    <row r="122" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A122" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7815,7 +7815,7 @@
         <v>ashfornherminajm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="123" ht="49.5" customHeight="1" spans="1:13">
+    <row r="123" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A123" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7869,7 +7869,7 @@
         <v>divyaks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="124" ht="49.5" customHeight="1" spans="1:13">
+    <row r="124" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A124" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7923,7 +7923,7 @@
         <v>manochitra@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="125" ht="49.5" customHeight="1" spans="1:13">
+    <row r="125" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A125" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -7977,7 +7977,7 @@
         <v>kiruthigar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="126" ht="49.5" customHeight="1" spans="1:13">
+    <row r="126" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A126" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8031,7 +8031,7 @@
         <v>nithinp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="127" ht="49.5" customHeight="1" spans="1:13">
+    <row r="127" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A127" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8085,7 +8085,7 @@
         <v>subbulakshmi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="128" ht="49.5" customHeight="1" spans="1:13">
+    <row r="128" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A128" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8139,7 +8139,7 @@
         <v>vaanathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="129" ht="49.5" customHeight="1" spans="1:13">
+    <row r="129" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A129" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8193,7 +8193,7 @@
         <v>esakkimadurae@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="130" ht="49.5" customHeight="1" spans="1:13">
+    <row r="130" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A130" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8247,7 +8247,7 @@
         <v>jeevithasv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="131" ht="49.5" customHeight="1" spans="1:13">
+    <row r="131" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A131" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8301,7 +8301,7 @@
         <v>esakkimadurae@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="132" ht="49.5" customHeight="1" spans="1:13">
+    <row r="132" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A132" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8355,7 +8355,7 @@
         <v>kiruthigar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="133" ht="49.5" customHeight="1" spans="1:13">
+    <row r="133" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A133" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8409,7 +8409,7 @@
         <v>satheeshkumars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="134" ht="49.5" customHeight="1" spans="1:13">
+    <row r="134" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A134" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -8463,7 +8463,7 @@
         <v>priyadharshni@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="135" ht="49.5" customHeight="1" spans="1:13">
+    <row r="135" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A135" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIDS")</f>
         <v>AIDS</v>
@@ -9865,7 +9865,7 @@
       <c r="L161" s="4"/>
       <c r="M161" s="4"/>
     </row>
-    <row r="162" ht="49.5" customHeight="1" spans="1:13">
+    <row r="162" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A162" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -9919,7 +9919,7 @@
         <v>revathivm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="163" ht="49.5" customHeight="1" spans="1:13">
+    <row r="163" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A163" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -9973,7 +9973,7 @@
         <v>gomathim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="164" ht="49.5" customHeight="1" spans="1:13">
+    <row r="164" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A164" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10027,7 +10027,7 @@
         <v>gayathridevi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="165" ht="49.5" customHeight="1" spans="1:13">
+    <row r="165" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A165" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10081,7 +10081,7 @@
         <v>nishanthinis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="166" ht="49.5" customHeight="1" spans="1:13">
+    <row r="166" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A166" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10135,7 +10135,7 @@
         <v>karthikas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="167" ht="49.5" customHeight="1" spans="1:13">
+    <row r="167" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A167" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10189,7 +10189,7 @@
         <v>balamurugane@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="168" ht="49.5" customHeight="1" spans="1:13">
+    <row r="168" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A168" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10243,7 +10243,7 @@
         <v>keerthana@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="169" ht="49.5" customHeight="1" spans="1:13">
+    <row r="169" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A169" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10297,7 +10297,7 @@
         <v>saranyamk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="170" ht="49.5" customHeight="1" spans="1:13">
+    <row r="170" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A170" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10351,7 +10351,7 @@
         <v>kanimozhi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="171" ht="49.5" customHeight="1" spans="1:13">
+    <row r="171" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A171" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10405,7 +10405,7 @@
         <v>mohanapriyak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="172" ht="49.5" customHeight="1" spans="1:13">
+    <row r="172" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A172" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10459,7 +10459,7 @@
         <v>manochitra@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="173" ht="49.5" customHeight="1" spans="1:13">
+    <row r="173" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A173" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10513,7 +10513,7 @@
         <v>karthikeyang@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="174" ht="49.5" customHeight="1" spans="1:13">
+    <row r="174" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A174" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10567,7 +10567,7 @@
         <v>kodieswaria@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="175" ht="49.5" customHeight="1" spans="1:13">
+    <row r="175" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A175" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10621,7 +10621,7 @@
         <v>deephav@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="176" ht="49.5" customHeight="1" spans="1:13">
+    <row r="176" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A176" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10675,7 +10675,7 @@
         <v>praveenar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="177" ht="49.5" customHeight="1" spans="1:13">
+    <row r="177" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A177" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10729,7 +10729,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="178" ht="49.5" customHeight="1" spans="1:13">
+    <row r="178" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A178" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10783,7 +10783,7 @@
         <v>jayak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="179" ht="49.5" customHeight="1" spans="1:13">
+    <row r="179" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A179" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10837,7 +10837,7 @@
         <v>kodieswaria@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="180" ht="49.5" customHeight="1" spans="1:13">
+    <row r="180" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A180" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10891,7 +10891,7 @@
         <v>eugenebernai@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="181" ht="49.5" customHeight="1" spans="1:13">
+    <row r="181" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A181" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10945,7 +10945,7 @@
         <v>anandakumark@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="182" ht="49.5" customHeight="1" spans="1:13">
+    <row r="182" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A182" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -10999,7 +10999,7 @@
         <v>rajasekarss@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="183" ht="49.5" customHeight="1" spans="1:13">
+    <row r="183" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A183" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11053,7 +11053,7 @@
         <v>karthikas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="184" ht="49.5" customHeight="1" spans="1:13">
+    <row r="184" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A184" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11107,7 +11107,7 @@
         <v>nithinp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="185" ht="49.5" customHeight="1" spans="1:13">
+    <row r="185" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A185" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11161,7 +11161,7 @@
         <v>karthikeyang@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="186" ht="49.5" customHeight="1" spans="1:13">
+    <row r="186" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A186" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11215,7 +11215,7 @@
         <v>karthikeyang@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="187" ht="49.5" customHeight="1" spans="1:13">
+    <row r="187" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A187" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11269,7 +11269,7 @@
         <v>indhumathik@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="188" ht="49.5" customHeight="1" spans="1:13">
+    <row r="188" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A188" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11323,7 +11323,7 @@
         <v>kanimozhi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="189" ht="49.5" customHeight="1" spans="1:13">
+    <row r="189" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A189" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11377,7 +11377,7 @@
         <v>keerthana@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="190" ht="49.5" customHeight="1" spans="1:13">
+    <row r="190" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A190" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11431,7 +11431,7 @@
         <v>somasundaramk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="191" ht="49.5" customHeight="1" spans="1:13">
+    <row r="191" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A191" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11485,7 +11485,7 @@
         <v>mohanapriyak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="192" ht="49.5" customHeight="1" spans="1:13">
+    <row r="192" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A192" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11539,7 +11539,7 @@
         <v>gayathridevi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="193" ht="49.5" customHeight="1" spans="1:13">
+    <row r="193" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A193" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11593,7 +11593,7 @@
         <v>nataraj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="194" ht="49.5" customHeight="1" spans="1:13">
+    <row r="194" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A194" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11647,7 +11647,7 @@
         <v>poornimaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="195" ht="49.5" customHeight="1" spans="1:13">
+    <row r="195" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A195" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11701,7 +11701,7 @@
         <v>indhumathik@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="196" ht="49.5" customHeight="1" spans="1:13">
+    <row r="196" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A196" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11755,7 +11755,7 @@
         <v>aswinjayasuryamj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="197" ht="49.5" customHeight="1" spans="1:13">
+    <row r="197" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A197" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11809,7 +11809,7 @@
         <v>saranyamk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="198" ht="49.5" customHeight="1" spans="1:13">
+    <row r="198" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A198" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"AIML")</f>
         <v>AIML</v>
@@ -11899,7 +11899,7 @@
       <c r="L199" s="4"/>
       <c r="M199" s="4"/>
     </row>
-    <row r="200" ht="49.5" customHeight="1" spans="1:13">
+    <row r="200" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A200" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -11953,7 +11953,7 @@
         <v>saahina@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="201" ht="49.5" customHeight="1" spans="1:13">
+    <row r="201" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A201" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12007,7 +12007,7 @@
         <v>syedalthaf@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="202" ht="49.5" customHeight="1" spans="1:13">
+    <row r="202" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A202" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12061,7 +12061,7 @@
         <v>divyaks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="203" ht="49.5" customHeight="1" spans="1:13">
+    <row r="203" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A203" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12115,7 +12115,7 @@
         <v>pratheebhag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="204" ht="49.5" customHeight="1" spans="1:13">
+    <row r="204" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A204" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12169,7 +12169,7 @@
         <v>carolinevinnetias@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="205" ht="49.5" customHeight="1" spans="1:13">
+    <row r="205" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A205" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12223,7 +12223,7 @@
         <v>sreeniveathap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="206" ht="49.5" customHeight="1" spans="1:13">
+    <row r="206" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A206" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12277,7 +12277,7 @@
         <v>saahina@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="207" ht="49.5" customHeight="1" spans="1:13">
+    <row r="207" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A207" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12331,7 +12331,7 @@
         <v>sreeniveathap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="208" ht="49.5" customHeight="1" spans="1:13">
+    <row r="208" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A208" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12385,7 +12385,7 @@
         <v>pratheebhag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="209" ht="49.5" customHeight="1" spans="1:13">
+    <row r="209" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A209" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12439,7 +12439,7 @@
         <v>carolinevinnetias@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="210" ht="49.5" customHeight="1" spans="1:13">
+    <row r="210" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A210" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12493,7 +12493,7 @@
         <v>syedalthaf@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="211" ht="49.5" customHeight="1" spans="1:13">
+    <row r="211" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A211" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -12547,7 +12547,7 @@
         <v>carolinevinnetias@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="212" ht="49.5" customHeight="1" spans="1:13">
+    <row r="212" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A212" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BME")</f>
         <v>BME</v>
@@ -13567,7 +13567,7 @@
       <c r="L231" s="4"/>
       <c r="M231" s="4"/>
     </row>
-    <row r="232" ht="49.5" customHeight="1" spans="1:13">
+    <row r="232" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A232" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13621,7 +13621,7 @@
         <v>tamilselvis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="233" ht="49.5" customHeight="1" spans="1:13">
+    <row r="233" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A233" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13675,7 +13675,7 @@
         <v>sureshchaluvadi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="234" ht="49.5" customHeight="1" spans="1:13">
+    <row r="234" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A234" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13729,7 +13729,7 @@
         <v>kumaresan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="235" ht="49.5" customHeight="1" spans="1:13">
+    <row r="235" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A235" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13783,7 +13783,7 @@
         <v>dineshd@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="236" ht="49.5" customHeight="1" spans="1:13">
+    <row r="236" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A236" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13837,7 +13837,7 @@
         <v>prakashkb@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="237" ht="49.5" customHeight="1" spans="1:13">
+    <row r="237" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A237" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13891,7 +13891,7 @@
         <v>prakashkb@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="238" ht="49.5" customHeight="1" spans="1:13">
+    <row r="238" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A238" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13945,7 +13945,7 @@
         <v>vinodhinirt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="239" ht="49.5" customHeight="1" spans="1:13">
+    <row r="239" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A239" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -13999,7 +13999,7 @@
         <v>mahimap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="240" ht="49.5" customHeight="1" spans="1:13">
+    <row r="240" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A240" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14053,7 +14053,7 @@
         <v>shankariv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="241" ht="49.5" customHeight="1" spans="1:13">
+    <row r="241" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A241" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14107,7 +14107,7 @@
         <v>rajaseetharama@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="242" ht="49.5" customHeight="1" spans="1:13">
+    <row r="242" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A242" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14161,7 +14161,7 @@
         <v>nandhinin@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="243" ht="49.5" customHeight="1" spans="1:13">
+    <row r="243" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A243" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14215,7 +14215,7 @@
         <v>kannankp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="244" ht="49.5" customHeight="1" spans="1:13">
+    <row r="244" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A244" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14269,7 +14269,7 @@
         <v>pavithramks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="245" ht="49.5" customHeight="1" spans="1:13">
+    <row r="245" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A245" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14323,7 +14323,7 @@
         <v>sakthishobanak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="246" ht="49.5" customHeight="1" spans="1:13">
+    <row r="246" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A246" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14377,7 +14377,7 @@
         <v>kirupasankarm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="247" ht="49.5" customHeight="1" spans="1:13">
+    <row r="247" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A247" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14431,7 +14431,7 @@
         <v>ashwinraj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="248" ht="49.5" customHeight="1" spans="1:13">
+    <row r="248" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A248" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14485,7 +14485,7 @@
         <v>subhapriyap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="249" ht="49.5" customHeight="1" spans="1:13">
+    <row r="249" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A249" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14539,7 +14539,7 @@
         <v>rameshkumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="250" ht="49.5" customHeight="1" spans="1:13">
+    <row r="250" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A250" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14593,7 +14593,7 @@
         <v>aslinjerusha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="251" ht="49.5" customHeight="1" spans="1:13">
+    <row r="251" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A251" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14647,7 +14647,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="252" ht="49.5" customHeight="1" spans="1:13">
+    <row r="252" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A252" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14701,7 +14701,7 @@
         <v>ashwinraj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="253" ht="49.5" customHeight="1" spans="1:13">
+    <row r="253" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A253" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14755,7 +14755,7 @@
         <v>dhivyadharshiniu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="254" ht="49.5" customHeight="1" spans="1:13">
+    <row r="254" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A254" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14809,7 +14809,7 @@
         <v>jeyavelkarthick@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="255" ht="49.5" customHeight="1" spans="1:13">
+    <row r="255" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A255" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14863,7 +14863,7 @@
         <v>balajisadhasivam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="256" ht="49.5" customHeight="1" spans="1:13">
+    <row r="256" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A256" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14917,7 +14917,7 @@
         <v>kirupasankarm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="257" ht="49.5" customHeight="1" spans="1:13">
+    <row r="257" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A257" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -14971,7 +14971,7 @@
         <v>saranya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="258" ht="49.5" customHeight="1" spans="1:13">
+    <row r="258" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A258" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15025,7 +15025,7 @@
         <v>sakthishobanak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="259" ht="49.5" customHeight="1" spans="1:13">
+    <row r="259" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A259" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15079,7 +15079,7 @@
         <v>sandhyaranir@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="260" ht="49.5" customHeight="1" spans="1:13">
+    <row r="260" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A260" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15133,7 +15133,7 @@
         <v>vinodhinirt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="261" ht="49.5" customHeight="1" spans="1:13">
+    <row r="261" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A261" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15187,7 +15187,7 @@
         <v>nandhinin@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="262" ht="49.5" customHeight="1" spans="1:13">
+    <row r="262" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A262" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15241,7 +15241,7 @@
         <v>dhivyadharshiniu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="263" ht="49.5" customHeight="1" spans="1:13">
+    <row r="263" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A263" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15295,7 +15295,7 @@
         <v>swathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="264" ht="49.5" customHeight="1" spans="1:13">
+    <row r="264" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A264" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15349,7 +15349,7 @@
         <v>kirupasankarm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="265" ht="49.5" customHeight="1" spans="1:13">
+    <row r="265" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A265" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15403,7 +15403,7 @@
         <v>pavithramks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="266" ht="49.5" customHeight="1" spans="1:13">
+    <row r="266" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A266" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15457,7 +15457,7 @@
         <v>sivarahini@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="267" ht="49.5" customHeight="1" spans="1:13">
+    <row r="267" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A267" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15511,7 +15511,7 @@
         <v>pidathalasahitya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="268" ht="49.5" customHeight="1" spans="1:13">
+    <row r="268" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A268" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15565,7 +15565,7 @@
         <v>balakrishnarajar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="269" ht="49.5" customHeight="1" spans="1:13">
+    <row r="269" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A269" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15619,7 +15619,7 @@
         <v>jeyavelkarthick@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="270" ht="49.5" customHeight="1" spans="1:13">
+    <row r="270" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A270" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15673,7 +15673,7 @@
         <v>sureshchaluvadi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="271" ht="49.5" customHeight="1" spans="1:13">
+    <row r="271" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A271" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15727,7 +15727,7 @@
         <v>nandhinin@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="272" ht="49.5" customHeight="1" spans="1:13">
+    <row r="272" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A272" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15781,7 +15781,7 @@
         <v>mahimap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="273" ht="49.5" customHeight="1" spans="1:13">
+    <row r="273" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A273" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15837,7 +15837,7 @@
         <v>swathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="274" ht="49.5" customHeight="1" spans="1:13">
+    <row r="274" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A274" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"BT")</f>
         <v>BT</v>
@@ -15927,7 +15927,7 @@
       <c r="L275" s="4"/>
       <c r="M275" s="9"/>
     </row>
-    <row r="276" ht="49.5" customHeight="1" spans="1:13">
+    <row r="276" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A276" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -15981,7 +15981,7 @@
         <v>karthigashenbagamn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="277" ht="49.5" customHeight="1" spans="1:13">
+    <row r="277" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A277" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16035,7 +16035,7 @@
         <v>karthigashenbagamn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="278" ht="49.5" customHeight="1" spans="1:13">
+    <row r="278" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A278" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16089,7 +16089,7 @@
         <v>rajendranm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="279" ht="49.5" customHeight="1" spans="1:13">
+    <row r="279" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A279" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16143,7 +16143,7 @@
         <v>rajendranm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="280" ht="49.5" customHeight="1" spans="1:13">
+    <row r="280" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A280" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16197,7 +16197,7 @@
         <v>geethamanir@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="281" ht="49.5" customHeight="1" spans="1:13">
+    <row r="281" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A281" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16251,7 +16251,7 @@
         <v>jeyanth@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="282" ht="49.5" customHeight="1" spans="1:13">
+    <row r="282" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A282" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16305,7 +16305,7 @@
         <v>mohanraja@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="283" ht="49.5" customHeight="1" spans="1:13">
+    <row r="283" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A283" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16359,7 +16359,7 @@
         <v>ashwathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="284" ht="49.5" customHeight="1" spans="1:13">
+    <row r="284" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A284" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16413,7 +16413,7 @@
         <v>gnanasundar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="285" ht="49.5" customHeight="1" spans="1:13">
+    <row r="285" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A285" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16467,7 +16467,7 @@
         <v>geethamanir@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="286" ht="49.5" customHeight="1" spans="1:13">
+    <row r="286" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A286" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -16521,7 +16521,7 @@
         <v>karthigashenbagamn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="287" ht="49.5" customHeight="1" spans="1:13">
+    <row r="287" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A287" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CIVIL")</f>
         <v>CIVIL</v>
@@ -19179,7 +19179,7 @@
       <c r="L337" s="4"/>
       <c r="M337" s="4"/>
     </row>
-    <row r="338" ht="49.5" customHeight="1" spans="1:13">
+    <row r="338" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A338" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19233,7 +19233,7 @@
         <v>parimalam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="339" ht="49.5" customHeight="1" spans="1:13">
+    <row r="339" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A339" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19287,7 +19287,7 @@
         <v>prakashk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="340" ht="49.5" customHeight="1" spans="1:13">
+    <row r="340" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A340" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19341,7 +19341,7 @@
         <v>umamageswarid@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="341" ht="49.5" customHeight="1" spans="1:13">
+    <row r="341" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A341" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19395,7 +19395,7 @@
         <v>preetha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="342" ht="49.5" customHeight="1" spans="1:13">
+    <row r="342" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A342" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19449,7 +19449,7 @@
         <v>saranyad@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="343" ht="49.5" customHeight="1" spans="1:13">
+    <row r="343" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A343" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19503,7 +19503,7 @@
         <v>hemalathab@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="344" ht="49.5" customHeight="1" spans="1:13">
+    <row r="344" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A344" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19557,7 +19557,7 @@
         <v>sangeethaasn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="345" ht="49.5" customHeight="1" spans="1:13">
+    <row r="345" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A345" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19611,7 +19611,7 @@
         <v>ramyarv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="346" ht="49.5" customHeight="1" spans="1:13">
+    <row r="346" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A346" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19665,7 +19665,7 @@
         <v>ammu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="347" ht="49.5" customHeight="1" spans="1:13">
+    <row r="347" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A347" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19719,7 +19719,7 @@
         <v>kayalvizhib@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="348" ht="49.5" customHeight="1" spans="1:13">
+    <row r="348" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A348" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19773,7 +19773,7 @@
         <v>rathna@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="349" ht="49.5" customHeight="1" spans="1:13">
+    <row r="349" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A349" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19827,7 +19827,7 @@
         <v>thangatamilselvis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="350" ht="49.5" customHeight="1" spans="1:13">
+    <row r="350" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A350" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19881,7 +19881,7 @@
         <v>sasikalad@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="351" ht="49.5" customHeight="1" spans="1:13">
+    <row r="351" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A351" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19935,7 +19935,7 @@
         <v>ramasamis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="352" ht="49.5" customHeight="1" spans="1:13">
+    <row r="352" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A352" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -19989,7 +19989,7 @@
         <v>mageshkumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="353" ht="49.5" customHeight="1" spans="1:13">
+    <row r="353" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A353" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20043,7 +20043,7 @@
         <v>gayathris@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="354" ht="49.5" customHeight="1" spans="1:13">
+    <row r="354" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A354" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20097,7 +20097,7 @@
         <v>parkavi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="355" ht="49.5" customHeight="1" spans="1:13">
+    <row r="355" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A355" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20151,7 +20151,7 @@
         <v>dineshps@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="356" ht="49.5" customHeight="1" spans="1:13">
+    <row r="356" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A356" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20205,7 +20205,7 @@
         <v>dhivyap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="357" ht="49.5" customHeight="1" spans="1:13">
+    <row r="357" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A357" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20259,7 +20259,7 @@
         <v>parthasarathip@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="358" ht="49.5" customHeight="1" spans="1:13">
+    <row r="358" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A358" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20313,7 +20313,7 @@
         <v>prabhadevi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="359" ht="49.5" customHeight="1" spans="1:13">
+    <row r="359" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A359" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20367,7 +20367,7 @@
         <v>gopalr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="360" ht="49.5" customHeight="1" spans="1:13">
+    <row r="360" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A360" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20421,7 +20421,7 @@
         <v>anandan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="361" ht="49.5" customHeight="1" spans="1:13">
+    <row r="361" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A361" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20475,7 +20475,7 @@
         <v>kiruthikavr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="362" ht="49.5" customHeight="1" spans="1:13">
+    <row r="362" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A362" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20529,7 +20529,7 @@
         <v>deepapriya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="363" ht="49.5" customHeight="1" spans="1:13">
+    <row r="363" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A363" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20583,7 +20583,7 @@
         <v>swathypriyadharsini@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="364" ht="49.5" customHeight="1" spans="1:13">
+    <row r="364" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A364" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20637,7 +20637,7 @@
         <v>alamelu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="365" ht="49.5" customHeight="1" spans="1:13">
+    <row r="365" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A365" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20691,7 +20691,7 @@
         <v>soundariya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="366" ht="49.5" customHeight="1" spans="1:13">
+    <row r="366" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A366" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20745,7 +20745,7 @@
         <v>chitradevi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="367" ht="49.5" customHeight="1" spans="1:13">
+    <row r="367" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A367" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20799,7 +20799,7 @@
         <v>kalaivanie@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="368" ht="49.5" customHeight="1" spans="1:13">
+    <row r="368" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A368" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20853,7 +20853,7 @@
         <v>praveen@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="369" ht="49.5" customHeight="1" spans="1:13">
+    <row r="369" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A369" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20907,7 +20907,7 @@
         <v>mythili@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="370" ht="49.5" customHeight="1" spans="1:13">
+    <row r="370" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A370" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -20961,7 +20961,7 @@
         <v>maheshs@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="371" ht="49.5" customHeight="1" spans="1:13">
+    <row r="371" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A371" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21015,7 +21015,7 @@
         <v>aswinjayasuryamj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="372" ht="49.5" customHeight="1" spans="1:13">
+    <row r="372" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A372" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21069,7 +21069,7 @@
         <v>priyanga@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="373" ht="49.5" customHeight="1" spans="1:13">
+    <row r="373" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A373" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21123,7 +21123,7 @@
         <v>mohanambal@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="374" ht="49.5" customHeight="1" spans="1:13">
+    <row r="374" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A374" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21177,7 +21177,7 @@
         <v>rajeshkumarg@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="375" ht="49.5" customHeight="1" spans="1:13">
+    <row r="375" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A375" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21231,7 +21231,7 @@
         <v>sangavin@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="376" ht="49.5" customHeight="1" spans="1:13">
+    <row r="376" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A376" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21285,7 +21285,7 @@
         <v>kavithac@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="377" ht="49.5" customHeight="1" spans="1:13">
+    <row r="377" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A377" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21339,7 +21339,7 @@
         <v>viswanathan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="378" ht="49.5" customHeight="1" spans="1:13">
+    <row r="378" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A378" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21393,7 +21393,7 @@
         <v>muthukumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="379" ht="49.5" customHeight="1" spans="1:13">
+    <row r="379" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A379" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21447,7 +21447,7 @@
         <v>kasthuris@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="380" ht="49.5" customHeight="1" spans="1:13">
+    <row r="380" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A380" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21501,7 +21501,7 @@
         <v>jesinbeneto@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="381" ht="49.5" customHeight="1" spans="1:13">
+    <row r="381" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A381" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21555,7 +21555,7 @@
         <v>sathishv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="382" ht="49.5" customHeight="1" spans="1:13">
+    <row r="382" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A382" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21609,7 +21609,7 @@
         <v>gayathri@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="383" ht="49.5" customHeight="1" spans="1:13">
+    <row r="383" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A383" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21663,7 +21663,7 @@
         <v>ezhil@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="384" ht="49.5" customHeight="1" spans="1:13">
+    <row r="384" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A384" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21717,7 +21717,7 @@
         <v>aslinjerusha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="385" ht="49.5" customHeight="1" spans="1:13">
+    <row r="385" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A385" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21771,7 +21771,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="386" ht="49.5" customHeight="1" spans="1:13">
+    <row r="386" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A386" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21825,7 +21825,7 @@
         <v>jayak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="387" ht="49.5" customHeight="1" spans="1:13">
+    <row r="387" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A387" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21879,7 +21879,7 @@
         <v>ajai@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="388" ht="49.5" customHeight="1" spans="1:13">
+    <row r="388" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A388" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21933,7 +21933,7 @@
         <v>ammu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="389" ht="49.5" customHeight="1" spans="1:13">
+    <row r="389" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A389" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -21987,7 +21987,7 @@
         <v>nithyars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="390" ht="49.5" customHeight="1" spans="1:13">
+    <row r="390" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A390" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22041,7 +22041,7 @@
         <v>aswinjayasuryamj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="391" ht="49.5" customHeight="1" spans="1:13">
+    <row r="391" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A391" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22095,7 +22095,7 @@
         <v>ganagavalli@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="392" ht="49.5" customHeight="1" spans="1:13">
+    <row r="392" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A392" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22149,7 +22149,7 @@
         <v>karthigam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="393" ht="49.5" customHeight="1" spans="1:13">
+    <row r="393" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A393" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22203,7 +22203,7 @@
         <v>parthasarathip@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="394" ht="49.5" customHeight="1" spans="1:13">
+    <row r="394" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A394" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22257,7 +22257,7 @@
         <v>premalathak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="395" ht="49.5" customHeight="1" spans="1:13">
+    <row r="395" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A395" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22311,7 +22311,7 @@
         <v>suseendrans@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="396" ht="49.5" customHeight="1" spans="1:13">
+    <row r="396" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A396" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22365,7 +22365,7 @@
         <v>steephanamalrajj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="397" ht="49.5" customHeight="1" spans="1:13">
+    <row r="397" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A397" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22419,7 +22419,7 @@
         <v>rajeshkannap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="398" ht="49.5" customHeight="1" spans="1:13">
+    <row r="398" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A398" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22473,7 +22473,7 @@
         <v>praveen@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="399" ht="49.5" customHeight="1" spans="1:13">
+    <row r="399" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A399" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22527,7 +22527,7 @@
         <v>dineshps@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="400" ht="49.5" customHeight="1" spans="1:13">
+    <row r="400" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A400" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22581,7 +22581,7 @@
         <v>saranyaks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="401" ht="49.5" customHeight="1" spans="1:13">
+    <row r="401" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A401" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22635,7 +22635,7 @@
         <v>gayathiridevis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="402" ht="49.5" customHeight="1" spans="1:13">
+    <row r="402" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A402" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22689,7 +22689,7 @@
         <v>sathishkannanr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="403" ht="49.5" customHeight="1" spans="1:13">
+    <row r="403" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A403" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22743,7 +22743,7 @@
         <v>rajeshkumarg@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="404" ht="49.5" customHeight="1" spans="1:13">
+    <row r="404" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A404" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22797,7 +22797,7 @@
         <v>swathypriyadharsini@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="405" ht="49.5" customHeight="1" spans="1:13">
+    <row r="405" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A405" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22851,7 +22851,7 @@
         <v>sathiya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="406" ht="49.5" customHeight="1" spans="1:13">
+    <row r="406" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A406" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22905,7 +22905,7 @@
         <v>chitradevi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="407" ht="49.5" customHeight="1" spans="1:13">
+    <row r="407" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A407" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -22959,7 +22959,7 @@
         <v>thangatamilselvis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="408" ht="49.5" customHeight="1" spans="1:13">
+    <row r="408" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A408" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23013,7 +23013,7 @@
         <v>sathyamoorthyj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="409" ht="49.5" customHeight="1" spans="1:13">
+    <row r="409" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A409" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23067,7 +23067,7 @@
         <v>rangarajk@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="410" ht="49.5" customHeight="1" spans="1:13">
+    <row r="410" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A410" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23121,7 +23121,7 @@
         <v>soundariya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="411" ht="49.5" customHeight="1" spans="1:13">
+    <row r="411" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A411" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23175,7 +23175,7 @@
         <v>kavithar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="412" ht="49.5" customHeight="1" spans="1:13">
+    <row r="412" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A412" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23229,7 +23229,7 @@
         <v>dhivyap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="413" ht="49.5" customHeight="1" spans="1:13">
+    <row r="413" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A413" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23283,7 +23283,7 @@
         <v>gunavardini@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="414" ht="49.5" customHeight="1" spans="1:13">
+    <row r="414" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A414" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23337,7 +23337,7 @@
         <v>parkavi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="415" ht="49.5" customHeight="1" spans="1:13">
+    <row r="415" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A415" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23391,7 +23391,7 @@
         <v>kayalvizhib@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="416" ht="49.5" customHeight="1" spans="1:13">
+    <row r="416" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A416" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23445,7 +23445,7 @@
         <v>mythili@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="417" ht="49.5" customHeight="1" spans="1:13">
+    <row r="417" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A417" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23499,7 +23499,7 @@
         <v>maheshs@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="418" ht="49.5" customHeight="1" spans="1:13">
+    <row r="418" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A418" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -23553,7 +23553,7 @@
         <v>rathna@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="419" ht="49.5" customHeight="1" spans="1:13">
+    <row r="419" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A419" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSE")</f>
         <v>CSE</v>
@@ -24174,7 +24174,7 @@
       <c r="L430" s="4"/>
       <c r="M430" s="4"/>
     </row>
-    <row r="431" ht="49.5" customHeight="1" spans="1:13">
+    <row r="431" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A431" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24228,7 +24228,7 @@
         <v>saranyanj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="432" ht="49.5" customHeight="1" spans="1:13">
+    <row r="432" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A432" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24282,7 +24282,7 @@
         <v>nishanthinis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="433" ht="49.5" customHeight="1" spans="1:13">
+    <row r="433" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A433" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24336,7 +24336,7 @@
         <v>chandruks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="434" ht="49.5" customHeight="1" spans="1:13">
+    <row r="434" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A434" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24390,7 +24390,7 @@
         <v>chandruks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="435" ht="49.5" customHeight="1" spans="1:13">
+    <row r="435" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A435" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24444,7 +24444,7 @@
         <v>steephanamalrajj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="436" ht="49.5" customHeight="1" spans="1:13">
+    <row r="436" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A436" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24498,7 +24498,7 @@
         <v>vinothinivr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="437" ht="49.5" customHeight="1" spans="1:13">
+    <row r="437" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A437" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24552,7 +24552,7 @@
         <v>vidhyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="438" ht="49.5" customHeight="1" spans="1:13">
+    <row r="438" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A438" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24606,7 +24606,7 @@
         <v>vaishnavin@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="439" ht="49.5" customHeight="1" spans="1:13">
+    <row r="439" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A439" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24660,7 +24660,7 @@
         <v>manigandan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="440" ht="49.5" customHeight="1" spans="1:13">
+    <row r="440" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A440" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24714,7 +24714,7 @@
         <v>vaishnavin@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="441" ht="49.5" customHeight="1" spans="1:13">
+    <row r="441" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A441" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24768,7 +24768,7 @@
         <v>saranyanj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="442" ht="49.5" customHeight="1" spans="1:13">
+    <row r="442" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A442" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24822,7 +24822,7 @@
         <v>padmashreea@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="443" ht="49.5" customHeight="1" spans="1:13">
+    <row r="443" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A443" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24876,7 +24876,7 @@
         <v>madhumithaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="444" ht="49.5" customHeight="1" spans="1:13">
+    <row r="444" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A444" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24930,7 +24930,7 @@
         <v>madhumithaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="445" ht="49.5" customHeight="1" spans="1:13">
+    <row r="445" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A445" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -24984,7 +24984,7 @@
         <v>chandruks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="446" ht="49.5" customHeight="1" spans="1:13">
+    <row r="446" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A446" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -25038,7 +25038,7 @@
         <v>ashfornherminajm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="447" ht="49.5" customHeight="1" spans="1:13">
+    <row r="447" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A447" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -25092,7 +25092,7 @@
         <v>aishwariya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="448" ht="49.5" customHeight="1" spans="1:13">
+    <row r="448" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A448" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -25146,7 +25146,7 @@
         <v>lokeswari@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="449" ht="49.5" customHeight="1" spans="1:13">
+    <row r="449" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A449" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSBS")</f>
         <v>CSBS</v>
@@ -25236,7 +25236,7 @@
       <c r="L450" s="4"/>
       <c r="M450" s="4"/>
     </row>
-    <row r="451" ht="49.5" customHeight="1" spans="1:13">
+    <row r="451" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A451" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25290,7 +25290,7 @@
         <v>rajeshkannap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="452" ht="49.5" customHeight="1" spans="1:13">
+    <row r="452" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A452" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25344,7 +25344,7 @@
         <v>subhashreep@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="453" ht="49.5" customHeight="1" spans="1:13">
+    <row r="453" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A453" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25398,7 +25398,7 @@
         <v>preethimathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="454" ht="49.5" customHeight="1" spans="1:13">
+    <row r="454" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A454" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25452,7 +25452,7 @@
         <v>priyadharshni@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="455" ht="49.5" customHeight="1" spans="1:13">
+    <row r="455" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A455" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25506,7 +25506,7 @@
         <v>kiruthikas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="456" ht="49.5" customHeight="1" spans="1:13">
+    <row r="456" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A456" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25560,7 +25560,7 @@
         <v>steephanamalrajj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="457" ht="49.5" customHeight="1" spans="1:13">
+    <row r="457" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A457" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25614,7 +25614,7 @@
         <v>lokeswari@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="458" ht="49.5" customHeight="1" spans="1:13">
+    <row r="458" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A458" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25668,7 +25668,7 @@
         <v>suriya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="459" ht="49.5" customHeight="1" spans="1:13">
+    <row r="459" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A459" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25722,7 +25722,7 @@
         <v>rajeshkannap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="460" ht="49.5" customHeight="1" spans="1:13">
+    <row r="460" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A460" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CSD")</f>
         <v>CSD</v>
@@ -25767,7 +25767,7 @@
       <c r="L460" s="4"/>
       <c r="M460" s="4"/>
     </row>
-    <row r="461" ht="49.5" customHeight="1" spans="1:13">
+    <row r="461" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A461" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -25821,7 +25821,7 @@
         <v>hemapriyad@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="462" ht="49.5" customHeight="1" spans="1:13">
+    <row r="462" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A462" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -25875,7 +25875,7 @@
         <v>btparvathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="463" ht="49.5" customHeight="1" spans="1:13">
+    <row r="463" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A463" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -25929,7 +25929,7 @@
         <v>prasannakiruba@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="464" ht="49.5" customHeight="1" spans="1:13">
+    <row r="464" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A464" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -25983,7 +25983,7 @@
         <v>manju@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="465" ht="49.5" customHeight="1" spans="1:13">
+    <row r="465" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A465" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -26037,7 +26037,7 @@
         <v>murugesanp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="466" ht="49.5" customHeight="1" spans="1:13">
+    <row r="466" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A466" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -26091,7 +26091,7 @@
         <v>nithyam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="467" ht="49.5" customHeight="1" spans="1:13">
+    <row r="467" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A467" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -26145,7 +26145,7 @@
         <v>anandan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="468" ht="49.5" customHeight="1" spans="1:13">
+    <row r="468" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A468" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -26199,7 +26199,7 @@
         <v>prasannakiruba@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="469" ht="49.5" customHeight="1" spans="1:13">
+    <row r="469" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A469" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"CT")</f>
         <v>CT</v>
@@ -27219,7 +27219,7 @@
       <c r="L488" s="4"/>
       <c r="M488" s="4"/>
     </row>
-    <row r="489" ht="49.5" customHeight="1" spans="1:13">
+    <row r="489" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A489" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27273,7 +27273,7 @@
         <v>senthilkumarj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="490" ht="49.5" customHeight="1" spans="1:13">
+    <row r="490" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A490" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27327,7 +27327,7 @@
         <v>chinnadurraicl@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="491" ht="49.5" customHeight="1" spans="1:13">
+    <row r="491" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A491" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27381,7 +27381,7 @@
         <v>veerakumars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="492" ht="49.5" customHeight="1" spans="1:13">
+    <row r="492" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A492" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27435,7 +27435,7 @@
         <v>nandhakumara@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="493" ht="49.5" customHeight="1" spans="1:13">
+    <row r="493" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A493" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27489,7 +27489,7 @@
         <v>bharanikumarr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="494" ht="49.5" customHeight="1" spans="1:13">
+    <row r="494" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A494" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27543,7 +27543,7 @@
         <v>arunchendhuran@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="495" ht="49.5" customHeight="1" spans="1:13">
+    <row r="495" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A495" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27597,7 +27597,7 @@
         <v>mohanapriyav@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="496" ht="49.5" customHeight="1" spans="1:13">
+    <row r="496" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A496" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27651,7 +27651,7 @@
         <v>sundars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="497" ht="49.5" customHeight="1" spans="1:13">
+    <row r="497" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A497" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27705,7 +27705,7 @@
         <v>srithap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="498" ht="49.5" customHeight="1" spans="1:13">
+    <row r="498" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A498" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27759,7 +27759,7 @@
         <v>gopika@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="499" ht="49.5" customHeight="1" spans="1:13">
+    <row r="499" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A499" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27813,7 +27813,7 @@
         <v>manojkumarp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="500" ht="49.5" customHeight="1" spans="1:13">
+    <row r="500" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A500" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27867,7 +27867,7 @@
         <v>nithyag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="501" ht="49.5" customHeight="1" spans="1:13">
+    <row r="501" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A501" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27921,7 +27921,7 @@
         <v>sathishkumars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="502" ht="49.5" customHeight="1" spans="1:13">
+    <row r="502" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A502" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -27975,7 +27975,7 @@
         <v>senthilkumarj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="503" ht="49.5" customHeight="1" spans="1:13">
+    <row r="503" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A503" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28029,7 +28029,7 @@
         <v>nithyag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="504" ht="49.5" customHeight="1" spans="1:13">
+    <row r="504" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A504" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28083,7 +28083,7 @@
         <v>maheswarikt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="505" ht="49.5" customHeight="1" spans="1:13">
+    <row r="505" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A505" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28137,7 +28137,7 @@
         <v>srinivasanm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="506" ht="49.5" customHeight="1" spans="1:13">
+    <row r="506" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A506" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28191,7 +28191,7 @@
         <v>subhapriyap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="507" ht="49.5" customHeight="1" spans="1:13">
+    <row r="507" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A507" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28245,7 +28245,7 @@
         <v>muralikrishnan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="508" ht="49.5" customHeight="1" spans="1:13">
+    <row r="508" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A508" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28299,7 +28299,7 @@
         <v>aslinjerusha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="509" ht="49.5" customHeight="1" spans="1:13">
+    <row r="509" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A509" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28353,7 +28353,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="510" ht="49.5" customHeight="1" spans="1:13">
+    <row r="510" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A510" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28407,7 +28407,7 @@
         <v>nandhakumara@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="511" ht="49.5" customHeight="1" spans="1:13">
+    <row r="511" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A511" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28461,7 +28461,7 @@
         <v>rajalashmik@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="512" ht="49.5" customHeight="1" spans="1:13">
+    <row r="512" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A512" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28515,7 +28515,7 @@
         <v>goldvinsugirthadhasb@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="513" ht="49.5" customHeight="1" spans="1:13">
+    <row r="513" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A513" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28569,7 +28569,7 @@
         <v>alexstanleyraja@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="514" ht="49.5" customHeight="1" spans="1:13">
+    <row r="514" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A514" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28623,7 +28623,7 @@
         <v>sivaramanpsr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="515" ht="49.5" customHeight="1" spans="1:13">
+    <row r="515" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A515" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28677,7 +28677,7 @@
         <v>maheswarikt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="516" ht="49.5" customHeight="1" spans="1:13">
+    <row r="516" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A516" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28731,7 +28731,7 @@
         <v>senthilkumarj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="517" ht="49.5" customHeight="1" spans="1:13">
+    <row r="517" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A517" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28785,7 +28785,7 @@
         <v>sathishkumars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="518" ht="49.5" customHeight="1" spans="1:13">
+    <row r="518" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A518" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -28839,7 +28839,7 @@
         <v>arunchendhuran@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="519" ht="49.5" customHeight="1" spans="1:13">
+    <row r="519" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A519" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EEE")</f>
         <v>EEE</v>
@@ -30723,7 +30723,7 @@
       <c r="L554" s="4"/>
       <c r="M554" s="4"/>
     </row>
-    <row r="555" ht="49.5" customHeight="1" spans="1:13">
+    <row r="555" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A555" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -30777,7 +30777,7 @@
         <v>ddeepa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="556" ht="49.5" customHeight="1" spans="1:13">
+    <row r="556" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A556" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -30831,7 +30831,7 @@
         <v>sannasi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="557" ht="49.5" customHeight="1" spans="1:13">
+    <row r="557" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A557" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -30885,7 +30885,7 @@
         <v>harikumarr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="558" ht="49.5" customHeight="1" spans="1:13">
+    <row r="558" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A558" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -30939,7 +30939,7 @@
         <v>sankarananth@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="559" ht="49.5" customHeight="1" spans="1:13">
+    <row r="559" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A559" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -30993,7 +30993,7 @@
         <v>harikumarr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="560" ht="49.5" customHeight="1" spans="1:13">
+    <row r="560" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A560" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31047,7 +31047,7 @@
         <v>harishkumaarp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="561" ht="49.5" customHeight="1" spans="1:13">
+    <row r="561" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A561" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31101,7 +31101,7 @@
         <v>perarasi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="562" ht="49.5" customHeight="1" spans="1:13">
+    <row r="562" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A562" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31155,7 +31155,7 @@
         <v>leebanmoses@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="563" ht="49.5" customHeight="1" spans="1:13">
+    <row r="563" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A563" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31209,7 +31209,7 @@
         <v>karthikeyan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="564" ht="49.5" customHeight="1" spans="1:13">
+    <row r="564" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A564" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31263,7 +31263,7 @@
         <v>poongodic@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="565" ht="49.5" customHeight="1" spans="1:13">
+    <row r="565" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A565" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31317,7 +31317,7 @@
         <v>venkateshkumaru@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="566" ht="49.5" customHeight="1" spans="1:13">
+    <row r="566" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A566" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31371,7 +31371,7 @@
         <v>ramyap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="567" ht="49.5" customHeight="1" spans="1:13">
+    <row r="567" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A567" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31425,7 +31425,7 @@
         <v>harishkumaarp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="568" ht="49.5" customHeight="1" spans="1:13">
+    <row r="568" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A568" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31479,7 +31479,7 @@
         <v>prakashsp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="569" ht="49.5" customHeight="1" spans="1:13">
+    <row r="569" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A569" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31533,7 +31533,7 @@
         <v>nivethag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="570" ht="49.5" customHeight="1" spans="1:13">
+    <row r="570" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A570" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31587,7 +31587,7 @@
         <v>arulmurugan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="571" ht="49.5" customHeight="1" spans="1:13">
+    <row r="571" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A571" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31641,7 +31641,7 @@
         <v>rajasekar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="572" ht="49.5" customHeight="1" spans="1:13">
+    <row r="572" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A572" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31695,7 +31695,7 @@
         <v>krishnarajr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="573" ht="49.5" customHeight="1" spans="1:13">
+    <row r="573" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A573" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31749,7 +31749,7 @@
         <v>sanjoydeb@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="574" ht="49.5" customHeight="1" spans="1:13">
+    <row r="574" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A574" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31803,7 +31803,7 @@
         <v>saranyan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="575" ht="49.5" customHeight="1" spans="1:13">
+    <row r="575" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A575" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31857,7 +31857,7 @@
         <v>ramkumarr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="576" ht="49.5" customHeight="1" spans="1:13">
+    <row r="576" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A576" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31911,7 +31911,7 @@
         <v>dhanalakshmis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="577" ht="49.5" customHeight="1" spans="1:13">
+    <row r="577" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A577" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -31965,7 +31965,7 @@
         <v>sharmilaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="578" ht="49.5" customHeight="1" spans="1:13">
+    <row r="578" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A578" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32019,7 +32019,7 @@
         <v>danielraja@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="579" ht="49.5" customHeight="1" spans="1:13">
+    <row r="579" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A579" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32073,7 +32073,7 @@
         <v>ragavim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="580" ht="49.5" customHeight="1" spans="1:13">
+    <row r="580" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A580" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32127,7 +32127,7 @@
         <v>nivethag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="581" ht="49.5" customHeight="1" spans="1:13">
+    <row r="581" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A581" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32181,7 +32181,7 @@
         <v>ragavim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="582" ht="49.5" customHeight="1" spans="1:13">
+    <row r="582" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A582" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32235,7 +32235,7 @@
         <v>elangos@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="583" ht="49.5" customHeight="1" spans="1:13">
+    <row r="583" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A583" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32289,7 +32289,7 @@
         <v>gayathrid@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="584" ht="49.5" customHeight="1" spans="1:13">
+    <row r="584" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A584" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32343,7 +32343,7 @@
         <v>kiruthikas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="585" ht="49.5" customHeight="1" spans="1:13">
+    <row r="585" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A585" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32397,7 +32397,7 @@
         <v>sathishv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="586" ht="49.5" customHeight="1" spans="1:13">
+    <row r="586" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A586" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32451,7 +32451,7 @@
         <v>rameshkumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="587" ht="49.5" customHeight="1" spans="1:13">
+    <row r="587" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A587" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32505,7 +32505,7 @@
         <v>karuppusamys@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="588" ht="49.5" customHeight="1" spans="1:13">
+    <row r="588" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A588" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32559,7 +32559,7 @@
         <v>kasthuris@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="589" ht="49.5" customHeight="1" spans="1:13">
+    <row r="589" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A589" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32613,7 +32613,7 @@
         <v>ezhil@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="590" ht="49.5" customHeight="1" spans="1:13">
+    <row r="590" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A590" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32667,7 +32667,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="591" ht="49.5" customHeight="1" spans="1:13">
+    <row r="591" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A591" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32721,7 +32721,7 @@
         <v>jayak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="592" ht="49.5" customHeight="1" spans="1:13">
+    <row r="592" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A592" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32775,7 +32775,7 @@
         <v>gayathri@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="593" ht="49.5" customHeight="1" spans="1:13">
+    <row r="593" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A593" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32829,7 +32829,7 @@
         <v>saranyan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="594" ht="49.5" customHeight="1" spans="1:13">
+    <row r="594" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A594" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32883,7 +32883,7 @@
         <v>dhanalakshmis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="595" ht="49.5" customHeight="1" spans="1:13">
+    <row r="595" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A595" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32937,7 +32937,7 @@
         <v>mythilis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="596" ht="49.5" customHeight="1" spans="1:13">
+    <row r="596" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A596" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -32991,7 +32991,7 @@
         <v>sampoornam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="597" ht="49.5" customHeight="1" spans="1:13">
+    <row r="597" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A597" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33045,7 +33045,7 @@
         <v>pushpavallim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="598" ht="49.5" customHeight="1" spans="1:13">
+    <row r="598" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A598" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33099,7 +33099,7 @@
         <v>tamilselvans@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="599" ht="49.5" customHeight="1" spans="1:13">
+    <row r="599" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A599" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33153,7 +33153,7 @@
         <v>murugank@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="600" ht="49.5" customHeight="1" spans="1:13">
+    <row r="600" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A600" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33207,7 +33207,7 @@
         <v>elangos@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="601" ht="49.5" customHeight="1" spans="1:13">
+    <row r="601" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A601" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33261,7 +33261,7 @@
         <v>mariaamuthar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="602" ht="49.5" customHeight="1" spans="1:13">
+    <row r="602" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A602" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33315,7 +33315,7 @@
         <v>karthikeyan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="603" ht="49.5" customHeight="1" spans="1:13">
+    <row r="603" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A603" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33360,7 +33360,7 @@
       <c r="L603" s="4"/>
       <c r="M603" s="4"/>
     </row>
-    <row r="604" ht="49.5" customHeight="1" spans="1:13">
+    <row r="604" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A604" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33414,7 +33414,7 @@
         <v>stephensagayaraja@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="605" ht="49.5" customHeight="1" spans="1:13">
+    <row r="605" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A605" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33468,7 +33468,7 @@
         <v>soundarya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="606" ht="49.5" customHeight="1" spans="1:13">
+    <row r="606" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A606" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33522,7 +33522,7 @@
         <v>leebanmoses@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="607" ht="49.5" customHeight="1" spans="1:13">
+    <row r="607" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A607" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33567,7 +33567,7 @@
       <c r="L607" s="4"/>
       <c r="M607" s="4"/>
     </row>
-    <row r="608" ht="49.5" customHeight="1" spans="1:13">
+    <row r="608" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A608" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33621,7 +33621,7 @@
         <v>sampoornam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="609" ht="49.5" customHeight="1" spans="1:13">
+    <row r="609" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A609" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33675,7 +33675,7 @@
         <v>sathiyamurthi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="610" ht="49.5" customHeight="1" spans="1:13">
+    <row r="610" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A610" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33729,7 +33729,7 @@
         <v>tamilselvan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="611" ht="49.5" customHeight="1" spans="1:13">
+    <row r="611" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A611" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33783,7 +33783,7 @@
         <v>rajasekar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="612" ht="49.5" customHeight="1" spans="1:13">
+    <row r="612" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A612" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33837,7 +33837,7 @@
         <v>pushpavallim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="613" ht="49.5" customHeight="1" spans="1:13">
+    <row r="613" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A613" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33891,7 +33891,7 @@
         <v>mariaamuthar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="614" ht="49.5" customHeight="1" spans="1:13">
+    <row r="614" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A614" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33945,7 +33945,7 @@
         <v>ramkumarr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="615" ht="49.5" customHeight="1" spans="1:13">
+    <row r="615" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A615" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -33999,7 +33999,7 @@
         <v>nivethag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="616" ht="49.5" customHeight="1" spans="1:13">
+    <row r="616" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A616" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34044,7 +34044,7 @@
       <c r="L616" s="4"/>
       <c r="M616" s="4"/>
     </row>
-    <row r="617" ht="49.5" customHeight="1" spans="1:13">
+    <row r="617" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A617" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34098,7 +34098,7 @@
         <v>danielraja@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="618" ht="49.5" customHeight="1" spans="1:13">
+    <row r="618" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A618" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34152,7 +34152,7 @@
         <v>sanjoydeb@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="619" ht="49.5" customHeight="1" spans="1:13">
+    <row r="619" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A619" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34206,7 +34206,7 @@
         <v>sharmilaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="620" ht="49.5" customHeight="1" spans="1:13">
+    <row r="620" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A620" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34260,7 +34260,7 @@
         <v>rameshr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="621" ht="49.5" customHeight="1" spans="1:13">
+    <row r="621" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A621" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34314,7 +34314,7 @@
         <v>baranidharan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="622" ht="49.5" customHeight="1" spans="1:13">
+    <row r="622" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A622" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34368,7 +34368,7 @@
         <v>rameshr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="623" ht="49.5" customHeight="1" spans="1:13">
+    <row r="623" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A623" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -34422,7 +34422,7 @@
         <v>mythilis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="624" ht="49.5" customHeight="1" spans="1:13">
+    <row r="624" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A624" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ECE")</f>
         <v>ECE</v>
@@ -35172,7 +35172,7 @@
       <c r="L638" s="4"/>
       <c r="M638" s="4"/>
     </row>
-    <row r="639" ht="49.5" customHeight="1" spans="1:13">
+    <row r="639" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A639" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35228,7 +35228,7 @@
         <v>saravanamoorthip@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="640" ht="49.5" customHeight="1" spans="1:13">
+    <row r="640" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A640" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35282,7 +35282,7 @@
         <v>arunjayakars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="641" ht="49.5" customHeight="1" spans="1:13">
+    <row r="641" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A641" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35336,7 +35336,7 @@
         <v>sudhahars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="642" ht="49.5" customHeight="1" spans="1:13">
+    <row r="642" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A642" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35390,7 +35390,7 @@
         <v>pravinsavaridass@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="643" ht="49.5" customHeight="1" spans="1:13">
+    <row r="643" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A643" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35444,7 +35444,7 @@
         <v>sreeniveathap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="644" ht="49.5" customHeight="1" spans="1:13">
+    <row r="644" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A644" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35498,7 +35498,7 @@
         <v>ganeshbabuc@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="645" ht="49.5" customHeight="1" spans="1:13">
+    <row r="645" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A645" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35552,7 +35552,7 @@
         <v>haritha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="646" ht="49.5" customHeight="1" spans="1:13">
+    <row r="646" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A646" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35606,7 +35606,7 @@
         <v>pratheebhag@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="647" ht="49.5" customHeight="1" spans="1:13">
+    <row r="647" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A647" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35660,7 +35660,7 @@
         <v>dhanasekar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="648" ht="49.5" customHeight="1" spans="1:13">
+    <row r="648" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A648" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35714,7 +35714,7 @@
         <v>vijayanandps@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="649" ht="49.5" customHeight="1" spans="1:13">
+    <row r="649" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A649" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35768,7 +35768,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="650" ht="49.5" customHeight="1" spans="1:13">
+    <row r="650" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A650" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35822,7 +35822,7 @@
         <v>vairavelks@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="651" ht="49.5" customHeight="1" spans="1:13">
+    <row r="651" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A651" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35876,7 +35876,7 @@
         <v>pravinsavaridass@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="652" ht="49.5" customHeight="1" spans="1:13">
+    <row r="652" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A652" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35930,7 +35930,7 @@
         <v>sudhahars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="653" ht="49.5" customHeight="1" spans="1:13">
+    <row r="653" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A653" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -35984,7 +35984,7 @@
         <v>balamurugan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="654" ht="49.5" customHeight="1" spans="1:13">
+    <row r="654" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A654" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36038,7 +36038,7 @@
         <v>manochitra@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="655" ht="49.5" customHeight="1" spans="1:13">
+    <row r="655" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A655" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36092,7 +36092,7 @@
         <v>prathap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="656" ht="49.5" customHeight="1" spans="1:13">
+    <row r="656" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A656" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36146,7 +36146,7 @@
         <v>sudhahars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="657" ht="49.5" customHeight="1" spans="1:13">
+    <row r="657" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A657" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36200,7 +36200,7 @@
         <v>kumaresank@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="658" ht="49.5" customHeight="1" spans="1:13">
+    <row r="658" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A658" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36254,7 +36254,7 @@
         <v>prathap@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="659" ht="49.5" customHeight="1" spans="1:13">
+    <row r="659" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A659" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36308,7 +36308,7 @@
         <v>pravinsavaridass@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="660" ht="49.5" customHeight="1" spans="1:13">
+    <row r="660" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A660" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"EIE")</f>
         <v>EIE</v>
@@ -36398,7 +36398,7 @@
       <c r="L661" s="4"/>
       <c r="M661" s="4"/>
     </row>
-    <row r="662" ht="49.5" customHeight="1" spans="1:13">
+    <row r="662" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A662" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36452,7 +36452,7 @@
         <v>saranyadv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="663" ht="49.5" customHeight="1" spans="1:13">
+    <row r="663" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A663" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36506,7 +36506,7 @@
         <v>janarthanan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="664" ht="49.5" customHeight="1" spans="1:13">
+    <row r="664" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A664" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36560,7 +36560,7 @@
         <v>gayathrirtxt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="665" ht="49.5" customHeight="1" spans="1:13">
+    <row r="665" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A665" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36614,7 +36614,7 @@
         <v>mounikas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="666" ht="49.5" customHeight="1" spans="1:13">
+    <row r="666" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A666" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36668,7 +36668,7 @@
         <v>mohanbharathic@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="667" ht="49.5" customHeight="1" spans="1:13">
+    <row r="667" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A667" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36722,7 +36722,7 @@
         <v>mekalan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="668" ht="49.5" customHeight="1" spans="1:13">
+    <row r="668" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A668" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36776,7 +36776,7 @@
         <v>mekalan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="669" ht="49.5" customHeight="1" spans="1:13">
+    <row r="669" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A669" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36830,7 +36830,7 @@
         <v>mohanbharathic@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="670" ht="49.5" customHeight="1" spans="1:13">
+    <row r="670" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A670" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FT")</f>
         <v>FT</v>
@@ -36920,7 +36920,7 @@
       <c r="L671" s="4"/>
       <c r="M671" s="4"/>
     </row>
-    <row r="672" ht="49.5" customHeight="1" spans="1:13">
+    <row r="672" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A672" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -36974,7 +36974,7 @@
         <v>edamakantiramanjireddy@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="673" ht="49.5" customHeight="1" spans="1:13">
+    <row r="673" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A673" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37028,7 +37028,7 @@
         <v>arunasreetna@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="674" ht="49.5" customHeight="1" spans="1:13">
+    <row r="674" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A674" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37082,7 +37082,7 @@
         <v>gowrishankar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="675" ht="49.5" customHeight="1" spans="1:13">
+    <row r="675" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A675" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37136,7 +37136,7 @@
         <v>nithiyapriyabt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="676" ht="49.5" customHeight="1" spans="1:13">
+    <row r="676" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A676" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37190,7 +37190,7 @@
         <v>pidathalasahitya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="677" ht="49.5" customHeight="1" spans="1:13">
+    <row r="677" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A677" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37244,7 +37244,7 @@
         <v>nithiyapriyabt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="678" ht="49.5" customHeight="1" spans="1:13">
+    <row r="678" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A678" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37298,7 +37298,7 @@
         <v>pidathalasahitya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="679" ht="49.5" customHeight="1" spans="1:13">
+    <row r="679" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A679" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37352,7 +37352,7 @@
         <v>sivarahini@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="680" ht="49.5" customHeight="1" spans="1:13">
+    <row r="680" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A680" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37406,7 +37406,7 @@
         <v>sivarahini@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="681" ht="49.5" customHeight="1" spans="1:13">
+    <row r="681" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A681" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37460,7 +37460,7 @@
         <v>nithiyapriyabt@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="682" ht="49.5" customHeight="1" spans="1:13">
+    <row r="682" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A682" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"FD")</f>
         <v>FD</v>
@@ -37550,7 +37550,7 @@
       <c r="L683" s="4"/>
       <c r="M683" s="4"/>
     </row>
-    <row r="684" ht="49.5" customHeight="1" spans="1:13">
+    <row r="684" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A684" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37604,7 +37604,7 @@
         <v>madhumathis@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="685" ht="49.5" customHeight="1" spans="1:13">
+    <row r="685" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A685" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37658,7 +37658,7 @@
         <v>nithyam@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="686" ht="49.5" customHeight="1" spans="1:13">
+    <row r="686" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A686" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37712,7 +37712,7 @@
         <v>gayathris@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="687" ht="49.5" customHeight="1" spans="1:13">
+    <row r="687" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A687" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37766,7 +37766,7 @@
         <v>jacksonj@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="688" ht="49.5" customHeight="1" spans="1:13">
+    <row r="688" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A688" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37820,7 +37820,7 @@
         <v>kalaivanie@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="689" ht="49.5" customHeight="1" spans="1:13">
+    <row r="689" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A689" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37874,7 +37874,7 @@
         <v>nithyapriyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="690" ht="49.5" customHeight="1" spans="1:13">
+    <row r="690" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A690" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37928,7 +37928,7 @@
         <v>pandiyanm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="691" ht="49.5" customHeight="1" spans="1:13">
+    <row r="691" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A691" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -37982,7 +37982,7 @@
         <v>anandakumark@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="692" ht="49.5" customHeight="1" spans="1:13">
+    <row r="692" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A692" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ISE")</f>
         <v>ISE</v>
@@ -40076,7 +40076,7 @@
       <c r="L731" s="4"/>
       <c r="M731" s="4"/>
     </row>
-    <row r="732" ht="49.5" customHeight="1" spans="1:13">
+    <row r="732" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A732" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40130,7 +40130,7 @@
         <v>indiranic@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="733" ht="49.5" customHeight="1" spans="1:13">
+    <row r="733" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A733" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40184,7 +40184,7 @@
         <v>kalaiselvan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="734" ht="49.5" customHeight="1" spans="1:13">
+    <row r="734" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A734" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40238,7 +40238,7 @@
         <v>prabakaran@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="735" ht="49.5" customHeight="1" spans="1:13">
+    <row r="735" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A735" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40292,7 +40292,7 @@
         <v>malathim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="736" ht="49.5" customHeight="1" spans="1:13">
+    <row r="736" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A736" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40346,7 +40346,7 @@
         <v>subhashreep@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="737" ht="49.5" customHeight="1" spans="1:13">
+    <row r="737" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A737" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40400,7 +40400,7 @@
         <v>priyajn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="738" ht="49.5" customHeight="1" spans="1:13">
+    <row r="738" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A738" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40454,7 +40454,7 @@
         <v>sabarmathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="739" ht="49.5" customHeight="1" spans="1:13">
+    <row r="739" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A739" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40508,7 +40508,7 @@
         <v>saveethar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="740" ht="49.5" customHeight="1" spans="1:13">
+    <row r="740" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A740" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40562,7 +40562,7 @@
         <v>srivinitha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="741" ht="49.5" customHeight="1" spans="1:13">
+    <row r="741" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A741" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40616,7 +40616,7 @@
         <v>nithyars@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="742" ht="49.5" customHeight="1" spans="1:13">
+    <row r="742" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A742" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40670,7 +40670,7 @@
         <v>shangaranarayanee@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="743" ht="49.5" customHeight="1" spans="1:13">
+    <row r="743" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A743" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40724,7 +40724,7 @@
         <v>deepasumathim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="744" ht="49.5" customHeight="1" spans="1:13">
+    <row r="744" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A744" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40778,7 +40778,7 @@
         <v>chandraprabhak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="745" ht="49.5" customHeight="1" spans="1:13">
+    <row r="745" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A745" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40832,7 +40832,7 @@
         <v>jananit@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="746" ht="49.5" customHeight="1" spans="1:13">
+    <row r="746" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A746" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40886,7 +40886,7 @@
         <v>selvakumarm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="747" ht="49.5" customHeight="1" spans="1:13">
+    <row r="747" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A747" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40940,7 +40940,7 @@
         <v>elavarasit@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="748" ht="49.5" customHeight="1" spans="1:13">
+    <row r="748" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A748" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -40994,7 +40994,7 @@
         <v>kavitha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="749" ht="49.5" customHeight="1" spans="1:13">
+    <row r="749" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A749" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41048,7 +41048,7 @@
         <v>indhubhashiniv@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="750" ht="49.5" customHeight="1" spans="1:13">
+    <row r="750" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A750" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41102,7 +41102,7 @@
         <v>muthumeena@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="751" ht="49.5" customHeight="1" spans="1:13">
+    <row r="751" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A751" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41156,7 +41156,7 @@
         <v>deepasumathim@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="752" ht="49.5" customHeight="1" spans="1:13">
+    <row r="752" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A752" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41210,7 +41210,7 @@
         <v>naveena@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="753" ht="49.5" customHeight="1" spans="1:13">
+    <row r="753" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A753" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41264,7 +41264,7 @@
         <v>sathiskumark@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="754" ht="49.5" customHeight="1" spans="1:13">
+    <row r="754" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A754" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41318,7 +41318,7 @@
         <v>sabarmathi@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="755" ht="49.5" customHeight="1" spans="1:13">
+    <row r="755" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A755" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41372,7 +41372,7 @@
         <v>santhiyab@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="756" ht="49.5" customHeight="1" spans="1:13">
+    <row r="756" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A756" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41426,7 +41426,7 @@
         <v>prasannakiruba@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="757" ht="49.5" customHeight="1" spans="1:13">
+    <row r="757" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A757" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41480,7 +41480,7 @@
         <v>kavithac@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="758" ht="49.5" customHeight="1" spans="1:13">
+    <row r="758" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A758" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41534,7 +41534,7 @@
         <v>malathimahalingamm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="759" ht="49.5" customHeight="1" spans="1:13">
+    <row r="759" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A759" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41588,7 +41588,7 @@
         <v>muralikrishnan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="760" ht="49.5" customHeight="1" spans="1:13">
+    <row r="760" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A760" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41642,7 +41642,7 @@
         <v>jesinbeneto@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="761" ht="49.5" customHeight="1" spans="1:13">
+    <row r="761" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A761" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41696,7 +41696,7 @@
         <v>gayathri@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="762" ht="49.5" customHeight="1" spans="1:13">
+    <row r="762" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A762" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41750,7 +41750,7 @@
         <v>aslinjerusha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="763" ht="49.5" customHeight="1" spans="1:13">
+    <row r="763" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A763" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41804,7 +41804,7 @@
         <v>ezhil@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="764" ht="49.5" customHeight="1" spans="1:13">
+    <row r="764" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A764" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41858,7 +41858,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="765" ht="49.5" customHeight="1" spans="1:13">
+    <row r="765" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A765" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41912,7 +41912,7 @@
         <v>srivinitha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="766" ht="49.5" customHeight="1" spans="1:13">
+    <row r="766" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A766" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -41966,7 +41966,7 @@
         <v>priyaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="767" ht="49.5" customHeight="1" spans="1:13">
+    <row r="767" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A767" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42020,7 +42020,7 @@
         <v>shangaranarayanee@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="768" ht="49.5" customHeight="1" spans="1:13">
+    <row r="768" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A768" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42074,7 +42074,7 @@
         <v>venkatesanr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="769" ht="49.5" customHeight="1" spans="1:13">
+    <row r="769" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A769" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42128,7 +42128,7 @@
         <v>selvakumarm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="770" ht="49.5" customHeight="1" spans="1:13">
+    <row r="770" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A770" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42182,7 +42182,7 @@
         <v>sasithra@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="771" ht="49.5" customHeight="1" spans="1:13">
+    <row r="771" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A771" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42236,7 +42236,7 @@
         <v>nivedha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="772" ht="49.5" customHeight="1" spans="1:13">
+    <row r="772" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A772" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42290,7 +42290,7 @@
         <v>mohemmedyousuf@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="773" ht="49.5" customHeight="1" spans="1:13">
+    <row r="773" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A773" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42344,7 +42344,7 @@
         <v>senthilnathans@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="774" ht="49.5" customHeight="1" spans="1:13">
+    <row r="774" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A774" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42398,7 +42398,7 @@
         <v>sobiyaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="775" ht="49.5" customHeight="1" spans="1:13">
+    <row r="775" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A775" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42452,7 +42452,7 @@
         <v>nikitham@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="776" ht="49.5" customHeight="1" spans="1:13">
+    <row r="776" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A776" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42506,7 +42506,7 @@
         <v>priyajn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="777" ht="49.5" customHeight="1" spans="1:13">
+    <row r="777" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A777" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42560,7 +42560,7 @@
         <v>chandraprabhak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="778" ht="49.5" customHeight="1" spans="1:13">
+    <row r="778" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A778" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42614,7 +42614,7 @@
         <v>elavarasit@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="779" ht="49.5" customHeight="1" spans="1:13">
+    <row r="779" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A779" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42668,7 +42668,7 @@
         <v>prabhups@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="780" ht="49.5" customHeight="1" spans="1:13">
+    <row r="780" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A780" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42722,7 +42722,7 @@
         <v>kalpana@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="781" ht="49.5" customHeight="1" spans="1:13">
+    <row r="781" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A781" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42776,7 +42776,7 @@
         <v>kavitha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="782" ht="49.5" customHeight="1" spans="1:13">
+    <row r="782" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A782" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42830,7 +42830,7 @@
         <v>priyaa@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="783" ht="49.5" customHeight="1" spans="1:13">
+    <row r="783" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A783" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42884,7 +42884,7 @@
         <v>senthilnathans@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="784" ht="49.5" customHeight="1" spans="1:13">
+    <row r="784" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A784" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42938,7 +42938,7 @@
         <v>mohemmedyousuf@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="785" ht="49.5" customHeight="1" spans="1:13">
+    <row r="785" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A785" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -42992,7 +42992,7 @@
         <v>jananit@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="786" ht="49.5" customHeight="1" spans="1:13">
+    <row r="786" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A786" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -43046,7 +43046,7 @@
         <v>tamilthendral@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="787" ht="49.5" customHeight="1" spans="1:13">
+    <row r="787" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A787" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -43100,7 +43100,7 @@
         <v>haripriyar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="788" ht="49.5" customHeight="1" spans="1:13">
+    <row r="788" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A788" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -43154,7 +43154,7 @@
         <v>tamilthendral@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="789" ht="49.5" customHeight="1" spans="1:13">
+    <row r="789" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A789" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -43208,7 +43208,7 @@
         <v>santhiyab@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="790" ht="49.5" customHeight="1" spans="1:13">
+    <row r="790" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A790" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"IT")</f>
         <v>IT</v>
@@ -43298,7 +43298,7 @@
       <c r="L791" s="4"/>
       <c r="M791" s="9"/>
     </row>
-    <row r="792" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="792" ht="49.5" customHeight="1" spans="1:13">
       <c r="A792" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43352,7 +43352,7 @@
         <v>gayathirib@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="793" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="793" ht="49.5" customHeight="1" spans="1:13">
       <c r="A793" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43406,7 +43406,7 @@
         <v>selvakumark@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="794" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="794" ht="49.5" customHeight="1" spans="1:13">
       <c r="A794" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43460,7 +43460,7 @@
         <v>vijayanandps@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="795" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="795" ht="49.5" customHeight="1" spans="1:13">
       <c r="A795" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43514,7 +43514,7 @@
         <v>mythili@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="796" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="796" ht="49.5" customHeight="1" spans="1:13">
       <c r="A796" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43568,7 +43568,7 @@
         <v>soundarya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="797" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="797" ht="49.5" customHeight="1" spans="1:13">
       <c r="A797" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43622,7 +43622,7 @@
         <v>sundarrajug@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="798" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="798" ht="49.5" customHeight="1" spans="1:13">
       <c r="A798" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43676,7 +43676,7 @@
         <v>shyamsundar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="799" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="799" ht="49.5" customHeight="1" spans="1:13">
       <c r="A799" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -43706,7 +43706,7 @@
       <c r="L799" s="4"/>
       <c r="M799" s="9"/>
     </row>
-    <row r="800" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="800" ht="49.5" customHeight="1" spans="1:13">
       <c r="A800" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44462,7 +44462,7 @@
         <v>nithyas@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="814" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="814" ht="49.5" customHeight="1" spans="1:13">
       <c r="A814" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44516,7 +44516,7 @@
         <v>pavanaditya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="815" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="815" ht="49.5" customHeight="1" spans="1:13">
       <c r="A815" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44570,7 +44570,7 @@
         <v>pavanaditya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="816" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="816" ht="49.5" customHeight="1" spans="1:13">
       <c r="A816" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44624,7 +44624,7 @@
         <v>muthukumarkm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="817" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="817" ht="49.5" customHeight="1" spans="1:13">
       <c r="A817" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44678,7 +44678,7 @@
         <v>josephsilvester@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="818" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="818" ht="49.5" customHeight="1" spans="1:13">
       <c r="A818" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44732,7 +44732,7 @@
         <v>josephsilvester@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="819" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="819" ht="49.5" customHeight="1" spans="1:13">
       <c r="A819" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44786,7 +44786,7 @@
         <v>muthukumarkm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="820" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="820" ht="49.5" customHeight="1" spans="1:13">
       <c r="A820" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44840,7 +44840,7 @@
         <v>josephsilvester@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="821" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="821" ht="49.5" customHeight="1" spans="1:13">
       <c r="A821" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44894,7 +44894,7 @@
         <v>muthukumarkm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="822" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="822" ht="49.5" customHeight="1" spans="1:13">
       <c r="A822" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -44948,7 +44948,7 @@
         <v>pavanaditya@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="823" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="823" ht="49.5" customHeight="1" spans="1:13">
       <c r="A823" s="4" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -46073,7 +46073,7 @@
       <c r="L843" s="4"/>
       <c r="M843" s="9"/>
     </row>
-    <row r="844" ht="49.5" hidden="1" customHeight="1" spans="1:13">
+    <row r="844" ht="49.5" customHeight="1" spans="1:13">
       <c r="A844" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MECH")</f>
         <v>MECH</v>
@@ -46580,7 +46580,7 @@
         <v>jayak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="854" ht="49.5" customHeight="1" spans="1:13">
+    <row r="854" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A854" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46636,7 +46636,7 @@
         <v>prabhavathik@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="855" ht="49.5" customHeight="1" spans="1:13">
+    <row r="855" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A855" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46690,7 +46690,7 @@
         <v>raghavendraprabhu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="856" ht="49.5" customHeight="1" spans="1:13">
+    <row r="856" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A856" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46744,7 +46744,7 @@
         <v>raghavendraprabhu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="857" ht="49.5" customHeight="1" spans="1:13">
+    <row r="857" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A857" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46798,7 +46798,7 @@
         <v>vadivelvivek@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="858" ht="49.5" customHeight="1" spans="1:13">
+    <row r="858" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A858" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46852,7 +46852,7 @@
         <v>kamalbasha@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="859" ht="49.5" customHeight="1" spans="1:13">
+    <row r="859" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A859" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46906,7 +46906,7 @@
         <v>senthilkumarp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="860" ht="49.5" customHeight="1" spans="1:13">
+    <row r="860" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A860" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -46960,7 +46960,7 @@
         <v>sureshkumarm@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="861" ht="49.5" customHeight="1" spans="1:13">
+    <row r="861" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A861" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47014,7 +47014,7 @@
         <v>nijandhan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="862" ht="49.5" customHeight="1" spans="1:13">
+    <row r="862" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A862" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47068,7 +47068,7 @@
         <v>nijandhan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="863" ht="49.5" customHeight="1" spans="1:13">
+    <row r="863" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A863" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47122,7 +47122,7 @@
         <v>jegadheeswarans@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="864" ht="49.5" customHeight="1" spans="1:13">
+    <row r="864" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A864" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47176,7 +47176,7 @@
         <v>muthukumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="865" ht="49.5" customHeight="1" spans="1:13">
+    <row r="865" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A865" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47230,7 +47230,7 @@
         <v>jayak@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="866" ht="49.5" customHeight="1" spans="1:13">
+    <row r="866" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A866" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47284,7 +47284,7 @@
         <v>rajievr@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="867" ht="49.5" customHeight="1" spans="1:13">
+    <row r="867" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A867" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47338,7 +47338,7 @@
         <v>senthilkumarp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="868" ht="49.5" customHeight="1" spans="1:13">
+    <row r="868" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A868" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47392,7 +47392,7 @@
         <v>sivabalakrishnan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="869" ht="49.5" customHeight="1" spans="1:13">
+    <row r="869" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A869" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47446,7 +47446,7 @@
         <v>sivabalakrishnan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="870" ht="49.5" customHeight="1" spans="1:13">
+    <row r="870" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A870" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47500,7 +47500,7 @@
         <v>senthilkumarkl@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="871" ht="49.5" customHeight="1" spans="1:13">
+    <row r="871" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A871" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47554,7 +47554,7 @@
         <v>raghavendraprabhu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="872" ht="49.5" customHeight="1" spans="1:13">
+    <row r="872" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A872" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47608,7 +47608,7 @@
         <v>siddharthan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="873" ht="49.5" customHeight="1" spans="1:13">
+    <row r="873" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A873" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47662,7 +47662,7 @@
         <v>raghavendraprabhu@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="874" ht="49.5" customHeight="1" spans="1:13">
+    <row r="874" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A874" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47716,7 +47716,7 @@
         <v>vignesh@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="875" ht="49.5" customHeight="1" spans="1:13">
+    <row r="875" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A875" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47770,7 +47770,7 @@
         <v>raghunath@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="876" ht="49.5" customHeight="1" spans="1:13">
+    <row r="876" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A876" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47824,7 +47824,7 @@
         <v>nijandhan@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="877" ht="49.5" customHeight="1" spans="1:13">
+    <row r="877" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A877" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -47878,7 +47878,7 @@
         <v>nagarajanp@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="878" ht="49.5" customHeight="1" spans="1:13">
+    <row r="878" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A878" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"MTRS")</f>
         <v>MTRS</v>
@@ -48543,7 +48543,7 @@
         <v>dhanabalusn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="891" ht="49.5" customHeight="1" spans="1:13">
+    <row r="891" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A891" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48597,7 +48597,7 @@
         <v>adhinarayananb@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="892" ht="49.5" customHeight="1" spans="1:13">
+    <row r="892" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A892" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48651,7 +48651,7 @@
         <v>nandhinib@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="893" ht="49.5" customHeight="1" spans="1:13">
+    <row r="893" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A893" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48705,7 +48705,7 @@
         <v>dhanabalusn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="894" ht="49.5" customHeight="1" spans="1:13">
+    <row r="894" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A894" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48759,7 +48759,7 @@
         <v>dhanabalusn@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="895" ht="49.5" customHeight="1" spans="1:13">
+    <row r="895" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A895" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48813,7 +48813,7 @@
         <v>senthilkumar@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="896" ht="49.5" customHeight="1" spans="1:13">
+    <row r="896" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A896" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48867,7 +48867,7 @@
         <v>mageswaran@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="897" ht="49.5" customHeight="1" spans="1:13">
+    <row r="897" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A897" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48921,7 +48921,7 @@
         <v>suganeshs@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="898" ht="49.5" customHeight="1" spans="1:13">
+    <row r="898" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A898" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -48963,7 +48963,7 @@
         <v>suganeshs@bitsathy.ac.in</v>
       </c>
     </row>
-    <row r="899" ht="49.5" customHeight="1" spans="1:13">
+    <row r="899" ht="49.5" hidden="1" customHeight="1" spans="1:13">
       <c r="A899" s="15" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"SMS")</f>
         <v>SMS</v>
@@ -55607,11 +55607,10 @@
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:M899" etc:filterBottomFollowUsedRange="0">
-    <filterColumn colId="1">
-      <customFilters>
-        <customFilter operator="equal" val="S4"/>
-        <customFilter operator="equal" val="S6"/>
-      </customFilters>
+    <filterColumn colId="0">
+      <filters>
+        <filter val="MECH"/>
+      </filters>
     </filterColumn>
     <extLst/>
   </autoFilter>
